--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -331,6 +331,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -623,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,10 +660,19 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -682,44 +716,124 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -728,40 +842,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -770,40 +924,80 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -812,40 +1006,80 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -854,40 +1088,80 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -896,40 +1170,80 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -938,40 +1252,80 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -980,42 +1334,148 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,9 +670,18 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -756,84 +765,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -842,80 +931,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -924,80 +1053,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1006,80 +1175,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1088,80 +1297,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1170,80 +1419,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1252,80 +1541,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1334,80 +1663,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1440,40 +1809,80 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
         </is>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,9 +679,18 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,981 +814,1229 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1809,83 +2066,107 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -658,8 +658,8 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -670,7 +670,7 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -858,395 +858,411 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1312,87 +1328,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1456,89 +1472,73 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1602,89 +1602,73 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1748,89 +1732,73 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1894,106 +1862,90 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1129</t>
-        </is>
-      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2001,7 +1953,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2066,72 +2018,72 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -221,6 +221,106 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -523,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +639,15 @@
     <col width="3" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,44 +691,124 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -628,40 +817,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -670,40 +899,80 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -712,43 +981,297 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -331,6 +331,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -623,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,8 +658,8 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="3" customWidth="1" min="5" max="5"/>
     <col width="3" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -644,10 +669,19 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -731,84 +765,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -817,80 +931,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -899,80 +1053,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -981,80 +1175,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1063,80 +1297,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1145,132 +1419,318 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,15 +660,15 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
@@ -682,6 +682,15 @@
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
     <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,124 +814,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -931,120 +1020,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1053,120 +1182,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1175,120 +1344,160 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1297,120 +1506,160 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1419,318 +1668,552 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,28 +660,28 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -691,6 +691,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1668,530 +1917,682 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
       <c r="AB10" t="n">
         <v/>
       </c>
@@ -2214,6 +2615,30 @@
         <v/>
       </c>
       <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -656,14 +656,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -679,18 +679,18 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -907,1715 +907,1763 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AK7" t="n">
-        <v/>
-      </c>
-      <c r="AL7" t="n">
-        <v/>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="n">
-        <v/>
-      </c>
-      <c r="AO7" t="n">
-        <v/>
-      </c>
-      <c r="AP7" t="n">
-        <v/>
-      </c>
-      <c r="AQ7" t="n">
-        <v/>
-      </c>
-      <c r="AR7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AK8" t="n">
-        <v/>
-      </c>
-      <c r="AL8" t="n">
-        <v/>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="n">
-        <v/>
-      </c>
-      <c r="AO8" t="n">
-        <v/>
-      </c>
-      <c r="AP8" t="n">
-        <v/>
-      </c>
-      <c r="AQ8" t="n">
-        <v/>
-      </c>
-      <c r="AR8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>26</t>
         </is>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
       <c r="AK10" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -665,11 +665,11 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -688,18 +688,18 @@
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -907,192 +907,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>588</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,192 +1917,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,202 +2321,202 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
@@ -2547,147 +2547,163 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -669,16 +669,16 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
     <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
     <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -697,7 +697,7 @@
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
     <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,167 +2321,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2547,162 +2547,162 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -678,16 +678,16 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
     <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
     <col width="3" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
@@ -907,192 +907,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,184 +1917,184 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,167 +2321,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2547,144 +2547,144 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -660,17 +660,17 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -687,16 +687,16 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
     <col width="3" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
     <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -907,184 +907,184 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,192 +1917,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,192 +2119,192 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2321,167 +2321,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1113</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2521,178 +2521,194 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -670,7 +670,7 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -679,7 +679,7 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -696,7 +696,7 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
     <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,192 +2119,192 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2321,167 +2321,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1113</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2523,184 +2523,184 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -660,10 +660,10 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -679,7 +679,7 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -688,7 +688,7 @@
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="3" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,184 +1917,184 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,167 +2321,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1113</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2521,204 +2521,188 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -670,7 +670,7 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -688,7 +688,7 @@
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -697,7 +697,7 @@
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
     <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="3" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,192 +2321,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1113</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>17</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2547,144 +2547,144 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2692,17 +2692,17 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -670,7 +670,7 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -679,7 +679,7 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -697,7 +697,7 @@
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
     <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,184 +2321,184 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1113</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2547,162 +2547,162 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -659,27 +659,27 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -688,7 +688,7 @@
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="3" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -907,192 +907,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,192 +2321,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2521,178 +2521,178 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
-      <c r="B10" t="n">
+      <c r="K10" t="n">
         <v/>
       </c>
-      <c r="C10" t="n">
+      <c r="L10" t="n">
         <v/>
       </c>
-      <c r="D10" t="n">
+      <c r="M10" t="n">
         <v/>
       </c>
-      <c r="E10" t="n">
+      <c r="N10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
+      <c r="O10" t="n">
         <v/>
       </c>
-      <c r="G10" t="n">
+      <c r="P10" t="n">
         <v/>
       </c>
-      <c r="H10" t="n">
+      <c r="Q10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -668,27 +668,27 @@
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -697,7 +697,7 @@
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
     <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="3" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -907,192 +907,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,192 +2321,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2523,176 +2523,176 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="S10" t="n">
         <v/>
       </c>
-      <c r="K10" t="n">
+      <c r="T10" t="n">
         <v/>
       </c>
-      <c r="L10" t="n">
+      <c r="U10" t="n">
         <v/>
       </c>
-      <c r="M10" t="n">
+      <c r="V10" t="n">
         <v/>
       </c>
-      <c r="N10" t="n">
+      <c r="W10" t="n">
         <v/>
       </c>
-      <c r="O10" t="n">
+      <c r="X10" t="n">
         <v/>
       </c>
-      <c r="P10" t="n">
+      <c r="Y10" t="n">
         <v/>
       </c>
-      <c r="Q10" t="n">
+      <c r="Z10" t="n">
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -658,12 +658,12 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -677,27 +677,27 @@
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="3" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
     <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -907,184 +907,184 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,192 +2119,192 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2321,184 +2321,184 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1114</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2521,178 +2521,162 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="AB10" t="n">
         <v/>
       </c>
-      <c r="T10" t="n">
+      <c r="AC10" t="n">
         <v/>
       </c>
-      <c r="U10" t="n">
+      <c r="AD10" t="n">
         <v/>
       </c>
-      <c r="V10" t="n">
+      <c r="AE10" t="n">
         <v/>
       </c>
-      <c r="W10" t="n">
+      <c r="AF10" t="n">
         <v/>
       </c>
-      <c r="X10" t="n">
+      <c r="AG10" t="n">
         <v/>
       </c>
-      <c r="Y10" t="n">
+      <c r="AH10" t="n">
         <v/>
       </c>
-      <c r="Z10" t="n">
+      <c r="AI10" t="n">
         <v/>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -667,12 +667,12 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -686,20 +686,20 @@
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="3" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>262</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,192 +1917,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,184 +2119,184 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2319,169 +2319,153 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>874</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2545,149 +2529,133 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,12 +658,12 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -676,12 +676,12 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -691,15 +691,6 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -863,244 +854,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>262</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1109,200 +1020,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1311,346 +1182,306 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1667,46 +1498,6 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1715,200 +1506,160 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1917,200 +1668,160 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2119,415 +1830,351 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>874</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="J10" t="n">
         <v/>
@@ -2553,109 +2200,69 @@
       <c r="Q10" t="n">
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,19 +660,19 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -685,12 +685,21 @@
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>262</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1992,144 +2321,184 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1112</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="S9" t="n">
         <v/>
       </c>
-      <c r="K9" t="n">
+      <c r="T9" t="n">
         <v/>
       </c>
-      <c r="L9" t="n">
+      <c r="U9" t="n">
         <v/>
       </c>
-      <c r="M9" t="n">
+      <c r="V9" t="n">
         <v/>
       </c>
-      <c r="N9" t="n">
+      <c r="W9" t="n">
         <v/>
       </c>
-      <c r="O9" t="n">
+      <c r="X9" t="n">
         <v/>
       </c>
-      <c r="P9" t="n">
+      <c r="Y9" t="n">
         <v/>
       </c>
-      <c r="Q9" t="n">
+      <c r="Z9" t="n">
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2138,67 +2507,83 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
       <c r="S10" t="n">
         <v/>
@@ -2224,42 +2609,66 @@
       <c r="Z10" t="n">
         <v/>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>27</t>
         </is>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -660,7 +660,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -669,19 +669,19 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -694,12 +694,12 @@
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -907,192 +907,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>262</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>65</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,293 +2321,309 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1112</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="AB9" t="n">
         <v/>
       </c>
-      <c r="T9" t="n">
+      <c r="AC9" t="n">
         <v/>
       </c>
-      <c r="U9" t="n">
+      <c r="AD9" t="n">
         <v/>
       </c>
-      <c r="V9" t="n">
+      <c r="AE9" t="n">
         <v/>
       </c>
-      <c r="W9" t="n">
+      <c r="AF9" t="n">
         <v/>
       </c>
-      <c r="X9" t="n">
+      <c r="AG9" t="n">
         <v/>
       </c>
-      <c r="Y9" t="n">
+      <c r="AH9" t="n">
         <v/>
       </c>
-      <c r="Z9" t="n">
+      <c r="AI9" t="n">
         <v/>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
       </c>
       <c r="AB10" t="n">
         <v/>
@@ -2633,45 +2649,29 @@
       <c r="AI10" t="n">
         <v/>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -661,15 +661,15 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -678,19 +678,19 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -907,1747 +907,1747 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>493</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1108</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1112</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AK9" t="n">
         <v/>
       </c>
-      <c r="AC9" t="n">
+      <c r="AL9" t="n">
         <v/>
       </c>
-      <c r="AD9" t="n">
+      <c r="AM9" t="n">
         <v/>
       </c>
-      <c r="AE9" t="n">
+      <c r="AN9" t="n">
         <v/>
       </c>
-      <c r="AF9" t="n">
+      <c r="AO9" t="n">
         <v/>
       </c>
-      <c r="AG9" t="n">
+      <c r="AP9" t="n">
         <v/>
       </c>
-      <c r="AH9" t="n">
+      <c r="AQ9" t="n">
         <v/>
       </c>
-      <c r="AI9" t="n">
+      <c r="AR9" t="n">
         <v/>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
       <c r="AK10" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -661,9 +661,9 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -678,7 +678,7 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -687,19 +687,19 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -907,1771 +907,1819 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>533</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1108</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1112</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -687,7 +687,7 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
@@ -696,7 +696,7 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
     <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>533</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,192 +1917,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2321,192 +2321,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1108</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1101</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>19</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1112</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2523,192 +2523,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -658,12 +658,12 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -696,7 +696,7 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
     <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -907,167 +907,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>533</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1109,167 +1109,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,192 +1917,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2319,194 +2319,178 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1108</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2521,194 +2505,178 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -667,12 +667,12 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -907,369 +907,369 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>533</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1311,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1513,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1715,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1917,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2119,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2343,154 +2343,138 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1108</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2529,154 +2513,138 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -356,6 +356,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -676,12 +701,12 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -907,369 +932,369 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>533</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1311,167 +1336,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1513,167 +1538,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1715,167 +1740,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1917,167 +1942,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2119,167 +2144,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2343,113 +2368,113 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1109</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2537,114 +2562,98 @@
       <c r="Q10" t="n">
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -681,7 +681,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
@@ -710,12 +710,12 @@
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -932,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,167 +1134,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1336,167 +1336,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1538,167 +1538,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1740,167 +1740,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1942,167 +1942,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2144,167 +2144,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2368,138 +2368,122 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1110</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1109</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2586,74 +2570,58 @@
       <c r="Z10" t="n">
         <v/>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -331,56 +331,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>176</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>198</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -673,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,7 +640,7 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
@@ -713,18 +663,18 @@
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,167 +882,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,167 +1084,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1336,167 +1286,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1538,167 +1488,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1740,167 +1690,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1942,167 +1892,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2142,169 +2092,153 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2392,247 +2326,93 @@
       <c r="Q9" t="n">
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -649,7 +649,7 @@
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -663,18 +663,18 @@
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -882,167 +882,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1084,167 +1084,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1286,167 +1286,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1488,167 +1488,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1690,167 +1690,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1892,167 +1892,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2116,129 +2116,113 @@
       <c r="H8" t="n">
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2350,69 +2334,69 @@
       <c r="Z9" t="n">
         <v/>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
-        <v/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -306,31 +306,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -623,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,14 +633,14 @@
     <col width="5" customWidth="1" min="25" max="25"/>
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -882,167 +857,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1084,167 +1059,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1286,167 +1261,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1488,167 +1463,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1690,167 +1665,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1892,167 +1867,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2140,262 +2115,108 @@
       <c r="Q8" t="n">
         <v/>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -306,6 +306,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -598,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,12 +633,12 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -638,18 +663,18 @@
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -857,192 +882,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1059,167 +1084,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,167 +1286,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1463,192 +1488,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1665,167 +1690,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1867,167 +1892,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>203</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2067,29 +2092,45 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="J8" t="n">
         <v/>
@@ -2139,85 +2180,207 @@
       <c r="Z8" t="n">
         <v/>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -642,12 +642,12 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -882,1280 +882,1296 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>203</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
       <c r="S8" t="n">
         <v/>
       </c>
@@ -2204,111 +2220,111 @@
       <c r="AI8" t="n">
         <v/>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
       <c r="S9" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -635,8 +635,8 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
@@ -651,12 +651,12 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -882,167 +882,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1084,167 +1084,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1286,184 +1286,184 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1488,167 +1488,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1690,167 +1690,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1892,167 +1892,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>203</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2094,107 +2094,123 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
       </c>
       <c r="AB8" t="n">
         <v/>
@@ -2248,107 +2264,123 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
       </c>
       <c r="AB9" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,29 +659,20 @@
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="17" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -765,108 +756,68 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>0</t>
@@ -874,64 +825,24 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>149</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -969,91 +880,35 @@
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1091,91 +946,35 @@
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1213,91 +1012,35 @@
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1335,91 +1078,35 @@
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1457,91 +1144,35 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1579,91 +1210,35 @@
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1678,17 +1253,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1701,91 +1276,35 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-October-2025</t>
+          <t>13-October-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1800,7 +1319,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1810,7 +1329,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1845,30 +1364,6 @@
         <v/>
       </c>
       <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -660,19 +660,19 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -760,611 +760,739 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,18 +661,27 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -756,84 +765,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>283</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -842,80 +931,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -924,80 +1053,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -1006,80 +1175,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1088,80 +1297,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1170,80 +1419,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1252,80 +1541,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1334,162 +1663,226 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,8 +658,8 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -669,7 +669,7 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -678,10 +678,19 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,981 +814,1229 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>261</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>283</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1121</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1809,83 +2066,107 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -658,8 +658,8 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -667,26 +667,26 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
@@ -858,541 +858,573 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1458,87 +1490,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1604,87 +1636,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>485</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1750,87 +1782,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1896,112 +1928,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1121</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2064,74 +2096,58 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>17</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>65</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -331,31 +331,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>176</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -660,19 +635,19 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
     <col width="3" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -760,561 +735,657 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -623,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,10 +644,19 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
     <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -731,84 +740,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -817,80 +906,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -899,80 +1028,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -981,80 +1150,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1063,80 +1272,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1145,80 +1394,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1227,80 +1516,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1309,80 +1638,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -653,7 +653,7 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
     <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -784,87 +784,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -906,87 +906,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1028,87 +1028,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1150,87 +1150,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1272,87 +1272,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1394,87 +1394,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1516,112 +1516,112 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1638,112 +1638,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -636,7 +636,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
@@ -784,87 +784,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -906,87 +906,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1028,87 +1028,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1150,87 +1150,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1272,87 +1272,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1394,87 +1394,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1516,87 +1516,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1638,87 +1638,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -331,6 +331,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -623,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,28 +660,19 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="17" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -740,106 +756,66 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>204</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>156</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -849,64 +825,24 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -944,91 +880,35 @@
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1066,91 +946,35 @@
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1188,91 +1012,35 @@
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1310,91 +1078,35 @@
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1409,17 +1121,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1432,91 +1144,35 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1531,17 +1187,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>277</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1554,91 +1210,35 @@
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-October-2025</t>
+          <t>27-October-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1653,7 +1253,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1663,7 +1263,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1676,85 +1276,95 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -666,13 +666,13 @@
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -760,611 +760,739 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,9 +659,9 @@
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
@@ -673,6 +673,15 @@
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -756,84 +765,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -842,80 +931,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -924,80 +1053,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -1006,80 +1175,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1088,80 +1297,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1170,80 +1419,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1252,80 +1541,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1334,80 +1663,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1416,80 +1785,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>27</t>
         </is>

--- a/minio-report-tracker/xlxs/qatest1.xlsx
+++ b/minio-report-tracker/xlxs/qatest1.xlsx
@@ -668,9 +668,9 @@
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -809,87 +809,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -931,87 +931,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1053,87 +1053,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1175,87 +1175,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1297,87 +1297,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1419,87 +1419,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1541,87 +1541,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>28-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1663,112 +1663,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1785,112 +1785,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30-Octobe